--- a/data/trans_camb/P22_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P22_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.7952282672831608</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.777923548798555</v>
+        <v>4.777923548798558</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.193199188893947</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8397060438081724</v>
+        <v>-1.466554956730066</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.094451122733315</v>
+        <v>-3.36812029145661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1324924346194948</v>
+        <v>0.2994224030308812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.727652645552571</v>
+        <v>-2.98031473428669</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.22273135914716</v>
+        <v>-2.828862780731948</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.705469888449834</v>
+        <v>4.031419012409889</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4143537509619737</v>
+        <v>-0.6692156828466873</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.953863387921371</v>
+        <v>-2.113990727319509</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.205591133419197</v>
+        <v>3.604411588117368</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.063087037716413</v>
+        <v>7.713626945450251</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.232278946889291</v>
+        <v>4.88055093710857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.301447202040814</v>
+        <v>9.467952698063399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.308788514313149</v>
+        <v>5.213203856647412</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.87047732727026</v>
+        <v>5.401388427964715</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.89575212012322</v>
+        <v>12.1075618526529</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.435123520708919</v>
+        <v>5.253219583591888</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.105199725361614</v>
+        <v>3.789528269662033</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.455206452183216</v>
+        <v>9.844684653997415</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1430099507046588</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8592383335651813</v>
+        <v>0.8592383335651819</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2357491221233216</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1524206222189301</v>
+        <v>-0.2222906991517247</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4248755051087076</v>
+        <v>-0.4395310699884259</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0247904089811781</v>
+        <v>0.009827494928118801</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4202149486661239</v>
+        <v>-0.4422319638523853</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4796296202183156</v>
+        <v>-0.416066301452047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4490733922767868</v>
+        <v>0.5282577150715255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08568637995990928</v>
+        <v>-0.1285024153514829</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3039877851675261</v>
+        <v>-0.3148168729342915</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4227934339463785</v>
+        <v>0.4389942769443929</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.345273465096529</v>
+        <v>2.085524246880385</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.465803201759302</v>
+        <v>1.409848768423658</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.524363369697006</v>
+        <v>2.814336749272102</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.745332620407864</v>
+        <v>1.657838935315787</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.421373301218263</v>
+        <v>1.815169050714168</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.997091769501434</v>
+        <v>4.312387903606229</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.340383472850033</v>
+        <v>1.359667295948553</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.018956894105995</v>
+        <v>0.9899126454368326</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.547729115112641</v>
+        <v>2.465145018485567</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.7846342915811784</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.554701806804941</v>
+        <v>3.554701806804939</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5051125678057454</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.352797011662569</v>
+        <v>-4.172400956948713</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.758947501076423</v>
+        <v>-7.863313483537611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.160377717712175</v>
+        <v>-2.282516559110798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1823337979329743</v>
+        <v>-0.3549621500637198</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.622962718534666</v>
+        <v>-2.591698039336112</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.212886899346856</v>
+        <v>1.426572858007823</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.510242951525672</v>
+        <v>-1.235333027445594</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.40754704767452</v>
+        <v>-4.439426052044466</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4250302398054901</v>
+        <v>0.2840952450550265</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.199033311980909</v>
+        <v>2.337515741382604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.62940666686493</v>
+        <v>-2.757423672062077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.653856214118908</v>
+        <v>4.330019900584334</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.481462649647447</v>
+        <v>4.327784061138055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8455755995086687</v>
+        <v>0.8377448335955159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.705046871897565</v>
+        <v>5.805813067069968</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.38722499666836</v>
+        <v>2.752815916515013</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.374935764093968</v>
+        <v>-1.413617637470702</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.262100043555301</v>
+        <v>4.539000866041046</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3194541451483814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.44725286561452</v>
+        <v>1.447252865614519</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1232796736972942</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5905320673202739</v>
+        <v>-0.5587028446921946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.976348292603082</v>
+        <v>-0.9691000709857996</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3242190276205626</v>
+        <v>-0.3306561615821962</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1244303989383987</v>
+        <v>-0.1312601215033273</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7652801067983771</v>
+        <v>-0.7643289469093228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3055894547533968</v>
+        <v>0.3201882217466341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3104338245253607</v>
+        <v>-0.2749436922335142</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8524073696106871</v>
+        <v>-0.8451845521702613</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05681860102156766</v>
+        <v>0.03915923431383217</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5579787506331854</v>
+        <v>0.6067580821966475</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5176596824115784</v>
+        <v>-0.5537977813086752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.045612630306551</v>
+        <v>1.000416359118311</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.827165966836456</v>
+        <v>2.986167850517842</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5928339389107129</v>
+        <v>0.743657973901533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.885440371148098</v>
+        <v>4.069319905540199</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7381342157688103</v>
+        <v>0.9501102331265897</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3860758109893335</v>
+        <v>-0.4003167027815217</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.334122691270384</v>
+        <v>1.43832763852615</v>
       </c>
     </row>
     <row r="16">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-0.7244203860564374</v>
+        <v>-0.7244203860564378</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-2.410086208327354</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.463718382449961</v>
+        <v>3.46371838244996</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.70861291294028</v>
@@ -1083,7 +1083,7 @@
         <v>-0.8513248160322691</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.509839524029629</v>
+        <v>6.50983952402963</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5229695074156336</v>
@@ -1092,7 +1092,7 @@
         <v>-1.611389124813079</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.048134158295565</v>
+        <v>5.048134158295564</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.57678226879984</v>
+        <v>-3.324158880598368</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.066923326045688</v>
+        <v>-4.737383665017179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.12997057195152</v>
+        <v>0.3441645720146717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.492005491448802</v>
+        <v>-0.291164081124042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.523756114229729</v>
+        <v>-2.346233557860496</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.162980386357689</v>
+        <v>4.026979884966842</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.262998357862475</v>
+        <v>-1.159301470001056</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.984803352916265</v>
+        <v>-3.12319236224992</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.107855438119832</v>
+        <v>3.104855107494719</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.028366609378956</v>
+        <v>1.898299373545919</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2894331978518715</v>
+        <v>-0.3365009427688728</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.681808236102328</v>
+        <v>6.778170789748252</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.694555635073447</v>
+        <v>4.227960613920234</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6033399776276132</v>
+        <v>0.5942589337637924</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.459587785131273</v>
+        <v>9.748673606795839</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.346870031536352</v>
+        <v>2.371306930486723</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.33210201010032</v>
+        <v>-0.3392062595027796</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.379115762983375</v>
+        <v>7.000019062180983</v>
       </c>
     </row>
     <row r="19">
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.2278986087563872</v>
+        <v>-0.2278986087563873</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.7581996647702974</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.089666463945663</v>
+        <v>1.089666463945662</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.18294215734989</v>
@@ -1188,7 +1188,7 @@
         <v>-0.5894067678264758</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4.507026461192587</v>
+        <v>4.507026461192588</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2284129594846899</v>
@@ -1208,29 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7554251233693267</v>
+        <v>-0.7607949180391013</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03046209220740782</v>
+        <v>0.0229396039889849</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3631298315456222</v>
-      </c>
-      <c r="G20" s="6" t="inlineStr"/>
+        <v>-0.2778969585954593</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>1.202940925425006</v>
+        <v>1.420979245456615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4155046915989934</v>
+        <v>-0.3908237608989795</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9270303214670202</v>
+        <v>-0.9225980563533851</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8769102660464192</v>
+        <v>0.9085536350689492</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.407544129180501</v>
+        <v>1.006934459429847</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4772407626055934</v>
+        <v>0.4248173016699514</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.244961889357282</v>
+        <v>3.870213533323685</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>9.48855286640868</v>
-      </c>
-      <c r="G21" s="6" t="inlineStr"/>
+        <v>7.971095277031691</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.93678763812762</v>
+      </c>
       <c r="H21" s="6" t="n">
-        <v>19.88429769799263</v>
+        <v>16.31364090408661</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.689235831511291</v>
+        <v>1.513236405351954</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.04169469166344621</v>
+        <v>-0.06023559958431415</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.752035615220893</v>
+        <v>4.752658623056502</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1297,7 @@
         <v>2.814175138886801</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.773640038830281</v>
+        <v>4.773640038830282</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1744068410952697</v>
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.672937101144389</v>
+        <v>-1.852613569170418</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.585450326224059</v>
+        <v>2.674554745108157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.624062803425124</v>
+        <v>6.336474071317137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.158749786984588</v>
+        <v>-3.233401855741092</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4694911276298118</v>
+        <v>-0.656294720504088</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.547568276740636</v>
+        <v>1.465037235579636</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.571761185069853</v>
+        <v>-1.70817574765482</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.054249369152225</v>
+        <v>1.86692636990159</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.12356174388881</v>
+        <v>5.013073790837229</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.006631921400321</v>
+        <v>2.744581664124424</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.203249412978471</v>
+        <v>9.796170814333589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.37476101903574</v>
+        <v>16.19430956664542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.375385304539822</v>
+        <v>2.542261983294539</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.320220808707414</v>
+        <v>6.344984024966204</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.010450817949906</v>
+        <v>7.910826710095993</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.996118525907233</v>
+        <v>2.100483808637509</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.706989527807594</v>
+        <v>6.625978948931539</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.4601571004752</v>
+        <v>10.75986917547538</v>
       </c>
     </row>
     <row r="25">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5416465356368089</v>
+        <v>-0.5765501864548265</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5346370137795613</v>
+        <v>0.6337646341431113</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.683685723139617</v>
+        <v>1.538917048832275</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5423779967275267</v>
+        <v>-0.5800429882147743</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.132601586380642</v>
+        <v>-0.1554912073461622</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2155175528302459</v>
+        <v>0.1885203983199691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4016730430480242</v>
+        <v>-0.4128624064052155</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4462392546236231</v>
+        <v>0.4787655439506395</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.110077427744566</v>
+        <v>1.151180594293782</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.808600293781865</v>
+        <v>2.486646451661605</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8.195854381375062</v>
+        <v>10.37538611534211</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15.26712032392206</v>
+        <v>14.05109281163181</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8649853230167004</v>
+        <v>0.9613432323340343</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.098116776832447</v>
+        <v>2.150835132221499</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.707672689683781</v>
+        <v>2.771124554900558</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8688800352837207</v>
+        <v>0.9060204401087725</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.711678313616741</v>
+        <v>2.8995347257723</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.54347777841782</v>
+        <v>4.603044431143259</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.41360573788575</v>
+        <v>-14.80454393796012</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.99582943321579</v>
+        <v>-21.65856327665389</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.08343264840889</v>
+        <v>-15.51185637338166</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.57892646468802</v>
+        <v>-11.95667679518575</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-18.53542318177611</v>
+        <v>-18.7175871770814</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.42292497526226</v>
+        <v>-12.51020545051331</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-11.79243963508534</v>
+        <v>-11.69669327776601</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-18.33305365799175</v>
+        <v>-18.19406708890158</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.09836892236095</v>
+        <v>-11.97029115977855</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5593627396838204</v>
+        <v>-1.460799617550388</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-10.00215308837909</v>
+        <v>-10.5925082564001</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.272393494960563</v>
+        <v>-3.618241360859896</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.597727151923266</v>
+        <v>-0.6098907871050098</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-9.032677093172063</v>
+        <v>-9.1748529397402</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.945171114984067</v>
+        <v>-1.661986801188166</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.901750216205863</v>
+        <v>-3.122318285192551</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-10.97889913645245</v>
+        <v>-10.83774372943794</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.395849118256987</v>
+        <v>-4.218842605538255</v>
       </c>
     </row>
     <row r="31">
@@ -1632,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7208717640838128</v>
+        <v>-0.7222317541396055</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7724433321262691</v>
+        <v>-0.7732678836468051</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.716868875686574</v>
+        <v>-0.6991734133772811</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6785256205224246</v>
+        <v>-0.6880454677335636</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6652074631341405</v>
+        <v>-0.6682165514666745</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.9869091703372036</v>
+        <v>-0.9871768988533994</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6751394173779564</v>
+        <v>-0.663590164847202</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.02687552461135628</v>
+        <v>-0.08096807254931167</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.7724966490495331</v>
+        <v>-0.7927111028195797</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3031083599519743</v>
+        <v>-0.2545131487817813</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.006583210549896599</v>
+        <v>-0.03940923755113307</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.8283820569511401</v>
+        <v>-0.8140115193839793</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1692095078441311</v>
+        <v>-0.1784773398286072</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2186000290622311</v>
+        <v>-0.2298853836706094</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.8521505904133917</v>
+        <v>-0.8724946648831067</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3410473254276442</v>
+        <v>-0.3380372756230749</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1725,7 @@
         <v>0.8861412996670996</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.962871746688412</v>
+        <v>6.962871746688408</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.581535062436008</v>
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.1251470296640516</v>
+        <v>0.04047754603862975</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.144912930011627</v>
+        <v>-1.067452054353078</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.49873272830256</v>
+        <v>3.160481829548548</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.172938109181675</v>
+        <v>-1.124126298598098</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.009052100000127</v>
+        <v>-1.039635358124996</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.188409680369356</v>
+        <v>3.898163470452193</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.01446644730484172</v>
+        <v>-0.01465058638226703</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.4688095563253054</v>
+        <v>-0.5607331373500963</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.533255769962489</v>
+        <v>4.558015870933358</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.525689063514013</v>
+        <v>5.624671018850778</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.372064915835002</v>
+        <v>3.245832432862197</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.724664092959925</v>
+        <v>9.52965579659776</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.876182367169454</v>
+        <v>3.072258199442474</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.347061566103976</v>
+        <v>3.488011463107087</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.05510417920114</v>
+        <v>10.08224897892314</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.502288248843594</v>
+        <v>3.451756470739575</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.652771296970156</v>
+        <v>2.551919691657771</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.876623124796469</v>
+        <v>9.015052757647721</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1830,7 @@
         <v>0.8215515284931302</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>6.455356418149663</v>
+        <v>6.45535641814966</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.50111472040258</v>
@@ -1846,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4540053817736746</v>
+        <v>-0.5700379108445025</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8588390023635026</v>
+        <v>-0.7444971511331228</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5422102925373015</v>
+        <v>0.5783020886285369</v>
       </c>
       <c r="F38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8228487568750389</v>
+        <v>-0.7415007093924691</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.530222898686789</v>
+        <v>1.371957500320062</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1623615876089227</v>
+        <v>-0.2324357867068278</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3666717955976335</v>
+        <v>-0.4758675021517781</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.769290784631295</v>
+        <v>1.876637536815771</v>
       </c>
     </row>
     <row r="39">
@@ -1886,16 +1890,16 @@
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="n">
-        <v>26.21247384413485</v>
+        <v>27.53929763749195</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>7.219278604083471</v>
+        <v>6.530997500385478</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>5.954322444089475</v>
+        <v>5.501584733074614</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>21.36667338160892</v>
+        <v>22.72137342625705</v>
       </c>
     </row>
     <row r="40">
@@ -1945,31 +1949,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.849591950958327</v>
+        <v>-2.89143404584093</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.400044130346337</v>
+        <v>-2.383463701378219</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11.44966599883986</v>
+        <v>11.75195494360217</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.581582756331009</v>
+        <v>-3.342875918176574</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.88273772453316</v>
+        <v>-2.010904562972273</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.73601305918147</v>
+        <v>13.03382601778419</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.586761199863639</v>
+        <v>-2.606932942694399</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.563761567291057</v>
+        <v>-1.544429896671905</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.36705119016895</v>
+        <v>13.33693269458073</v>
       </c>
     </row>
     <row r="42">
@@ -1980,31 +1984,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.44761060669868</v>
+        <v>1.314010355446656</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.212814074522092</v>
+        <v>2.301813588313268</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18.76950537297145</v>
+        <v>18.7488664395274</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.9879609404961055</v>
+        <v>0.9258792764222512</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.95058775871375</v>
+        <v>2.796399661583595</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.52964217682228</v>
+        <v>19.53657316484703</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.6223850422412737</v>
+        <v>0.6479140731729341</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.824196883072275</v>
+        <v>1.893038889914874</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.46173586551068</v>
+        <v>18.21969044583127</v>
       </c>
     </row>
     <row r="43">
@@ -2050,31 +2054,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5415522397525967</v>
+        <v>-0.5343899823900408</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4611391701820578</v>
+        <v>-0.45023364158021</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.981634880044575</v>
+        <v>1.97152422736789</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6025080372388188</v>
+        <v>-0.5606120873078355</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3216738661742349</v>
+        <v>-0.3517925304571833</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.987304381337592</v>
+        <v>2.012228029519911</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4719471270318805</v>
+        <v>-0.48009374520492</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2929539939145299</v>
+        <v>-0.2904166894719389</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>2.448054390133816</v>
+        <v>2.436525348165389</v>
       </c>
     </row>
     <row r="45">
@@ -2085,31 +2089,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5403914199504622</v>
+        <v>0.4661223018573664</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7423949954076136</v>
+        <v>0.7556147924924307</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>6.33917646692569</v>
+        <v>6.269682753517082</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3001697898983186</v>
+        <v>0.3150128804541392</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.871851556684947</v>
+        <v>0.7838013329652301</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.893501240055716</v>
+        <v>5.598258064106931</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1861732454696233</v>
+        <v>0.2130634336898859</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.495564300980815</v>
+        <v>0.5445921261426422</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>5.247280792125109</v>
+        <v>5.20822408189045</v>
       </c>
     </row>
     <row r="46">
@@ -2139,7 +2143,7 @@
         <v>-1.7894455603526</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.552864250697535</v>
+        <v>-2.552864250697534</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-5.858640543161058</v>
@@ -2148,7 +2152,7 @@
         <v>-4.919178129594142</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-5.254280518765782</v>
+        <v>-5.254280518765783</v>
       </c>
     </row>
     <row r="47">
@@ -2159,31 +2163,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-10.44877231458086</v>
+        <v>-10.67658691843535</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-10.95541992160148</v>
+        <v>-11.26285103489121</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.92759495507181</v>
+        <v>-10.82610780581152</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.589002805366503</v>
+        <v>-6.607202882058703</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.488574545117619</v>
+        <v>-4.437055292615779</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.310055711220106</v>
+        <v>-5.281212166173561</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-7.909610923918862</v>
+        <v>-7.699987152290862</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.923959302001395</v>
+        <v>-6.843744476291802</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-7.321754372364947</v>
+        <v>-7.283500843651495</v>
       </c>
     </row>
     <row r="48">
@@ -2194,31 +2198,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-4.763811974211025</v>
+        <v>-4.862372580059078</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-5.25370225215122</v>
+        <v>-5.577038341687837</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.216533719349965</v>
+        <v>-5.155856160130761</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-1.674252589705319</v>
+        <v>-1.67736756852808</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.9813039955418696</v>
+        <v>0.9029766059471447</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.09615288397777169</v>
+        <v>-0.1944448281528679</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-4.019838802735531</v>
+        <v>-3.925596341176963</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-3.153237916985584</v>
+        <v>-2.910522837231265</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-3.37564327408835</v>
+        <v>-3.398769909930169</v>
       </c>
     </row>
     <row r="49">
@@ -2244,7 +2248,7 @@
         <v>-0.2073099618387752</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2957531662977201</v>
+        <v>-0.29575316629772</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.5556441894433792</v>
@@ -2264,31 +2268,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7491993030969073</v>
+        <v>-0.7468583699669432</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7619444832163127</v>
+        <v>-0.7772888858859199</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7616194406186917</v>
+        <v>-0.7581685038320882</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6542466496906874</v>
+        <v>-0.6496809171988082</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4431971882586004</v>
+        <v>-0.4336749720365767</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5098019928332921</v>
+        <v>-0.511698872561815</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6669383303112225</v>
+        <v>-0.6640285655501227</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5914546594918737</v>
+        <v>-0.5834174459962744</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6163597125442271</v>
+        <v>-0.6181024673647398</v>
       </c>
     </row>
     <row r="51">
@@ -2299,31 +2303,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4355166474244312</v>
+        <v>-0.4411796127224921</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4807397438234631</v>
+        <v>-0.4931359993499401</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.4825721596666281</v>
+        <v>-0.4818091842163938</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1963189551477851</v>
+        <v>-0.219654115615619</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1310200480845244</v>
+        <v>0.1349956769716537</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.01342879315037391</v>
+        <v>-0.02020490015044484</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4236791746798724</v>
+        <v>-0.4086991746858595</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3216768559827079</v>
+        <v>-0.3031201518091334</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3556875313347242</v>
+        <v>-0.3485100166984162</v>
       </c>
     </row>
     <row r="52">
@@ -2362,7 +2366,7 @@
         <v>-1.912558265441774</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>4.255048201070688</v>
+        <v>4.255048201070691</v>
       </c>
     </row>
     <row r="53">
@@ -2373,31 +2377,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-3.176542620985613</v>
+        <v>-3.109691753488826</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.228292112376158</v>
+        <v>-4.125929771270929</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.703352003492004</v>
+        <v>1.788816302465591</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.041443041222522</v>
+        <v>-2.025971145840173</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.990474088361541</v>
+        <v>-1.917289460666955</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.057717360902848</v>
+        <v>4.139249800397938</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.306087679845901</v>
+        <v>-2.267906447800408</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.637637086442634</v>
+        <v>-2.717116768422173</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.297079088993802</v>
+        <v>3.380856711494193</v>
       </c>
     </row>
     <row r="54">
@@ -2408,31 +2412,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.8850848369674374</v>
+        <v>-0.8553613845881217</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.903780771836782</v>
+        <v>-2.015924821114252</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.543124151218797</v>
+        <v>4.769392518075315</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.05830794382409349</v>
+        <v>0.03148757942289656</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.1454425654927637</v>
+        <v>0.07675863220680332</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.339002238512199</v>
+        <v>6.352955574875462</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-0.6901811380227526</v>
+        <v>-0.7380924589722457</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-1.181667692138058</v>
+        <v>-1.116245413932849</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.222675702591141</v>
+        <v>5.291470110764694</v>
       </c>
     </row>
     <row r="55">
@@ -2467,7 +2471,7 @@
         <v>-0.3249934471775632</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.7230434793855707</v>
+        <v>0.7230434793855712</v>
       </c>
     </row>
     <row r="56">
@@ -2478,31 +2482,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.440989055365348</v>
+        <v>-0.4367696197462457</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5741424486741239</v>
+        <v>-0.5654754968051062</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2294759814328863</v>
+        <v>0.2499863358013583</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.347808248612915</v>
+        <v>-0.3470578267620147</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3372783706413646</v>
+        <v>-0.3366518796905109</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7001101778525837</v>
+        <v>0.7016228400991056</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3583879106255291</v>
+        <v>-0.3601438333103249</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4266613085239268</v>
+        <v>-0.4273874150656981</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.5188855434044229</v>
+        <v>0.5315047149293841</v>
       </c>
     </row>
     <row r="57">
@@ -2513,31 +2517,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1513973023306263</v>
+        <v>-0.1451036338611356</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.312823172987273</v>
+        <v>-0.3315987811628968</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7605920421863509</v>
+        <v>0.7886139101797901</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.01922512300944077</v>
+        <v>0.008715587448146253</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.03681724216156741</v>
+        <v>0.01981231100103474</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.382182770365229</v>
+        <v>1.361624232411255</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.1238781323286513</v>
+        <v>-0.1317163135176486</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.2146723154713491</v>
+        <v>-0.2013364251886594</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.9683688953881368</v>
+        <v>0.9691846852976446</v>
       </c>
     </row>
     <row r="58">
